--- a/Data Files/Appointments.xlsx
+++ b/Data Files/Appointments.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Facility</t>
   </si>
@@ -72,22 +72,13 @@
     <t>name</t>
   </si>
   <si>
-    <t>846-42-1097</t>
-  </si>
-  <si>
-    <t>Makayla</t>
-  </si>
-  <si>
-    <t>619-83-4884</t>
-  </si>
-  <si>
-    <t>Caroline</t>
-  </si>
-  <si>
-    <t>329-51-8889</t>
-  </si>
-  <si>
-    <t>Natalie</t>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Hamed</t>
+  </si>
+  <si>
+    <t>Elyse</t>
   </si>
 </sst>
 </file>
@@ -524,7 +515,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -542,27 +533,27 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>7666</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Appointments.xlsx
+++ b/Data Files/Appointments.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Facility</t>
   </si>
@@ -72,13 +72,22 @@
     <t>name</t>
   </si>
   <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>Hamed</t>
-  </si>
-  <si>
-    <t>Elyse</t>
+    <t>846-42-1097</t>
+  </si>
+  <si>
+    <t>778-03-5250</t>
+  </si>
+  <si>
+    <t>029-06-5300</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>Khloe</t>
+  </si>
+  <si>
+    <t>Makayla</t>
   </si>
 </sst>
 </file>
@@ -533,27 +542,27 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>7666</v>
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
